--- a/data/s_vals/2023/winn_keaton.xlsx
+++ b/data/s_vals/2023/winn_keaton.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3167448269367641</v>
+        <v>0.02258322285507441</v>
       </c>
       <c r="C2" t="n">
-        <v>3.291990378735282</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D2" t="n">
-        <v>4.554528715529886</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E2" t="n">
-        <v>13.6275714314424</v>
+        <v>198602002.3250627</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.79083535264434</v>
+        <v>198602169.3799862</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>3.291990378735282</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E3" t="n">
-        <v>4.849643088080038</v>
+        <v>71517.89157740913</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>10.7281724124299</v>
+        <v>71530.92951483269</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/winn_keaton.xlsx
+++ b/data/s_vals/2023/winn_keaton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>198602169.3799862</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>71530.92951483269</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/winn_keaton.xlsx
+++ b/data/s_vals/2023/winn_keaton.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02258322285507441</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C2" t="n">
-        <v>9.226618575922256</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D2" t="n">
-        <v>157.8057217802531</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E2" t="n">
-        <v>198602002.3250627</v>
+        <v>91228006295.30009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>198602169.3799862</v>
+        <v>91228006566.98018</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>9.226618575922256</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D3" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>71517.89157740913</v>
+        <v>2195978.878461985</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>71530.92951483269</v>
+        <v>2195993.423647656</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
